--- a/Bowen_COI.xlsx
+++ b/Bowen_COI.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u0133977\Dropbox\HypoMirror\CV\coi_updateR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F94432B-F95D-4851-9ECF-8EFC227EB60D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001656BB-D636-4B35-8F7D-1C4547D225B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="278">
   <si>
     <t>Allen, S. T.</t>
   </si>
@@ -171,9 +171,6 @@
     <t>Contreras, S.</t>
   </si>
   <si>
-    <t>Univ. New Mexico</t>
-  </si>
-  <si>
     <t>Cotton, J. M.</t>
   </si>
   <si>
@@ -213,9 +210,6 @@
     <t>Dennison, P. E.</t>
   </si>
   <si>
-    <t>Univ. Wisconsin</t>
-  </si>
-  <si>
     <t>Diaz, M.</t>
   </si>
   <si>
@@ -327,9 +321,6 @@
     <t>Isoforensics, Inc</t>
   </si>
   <si>
-    <t>Univ. Washington</t>
-  </si>
-  <si>
     <t>Jacques, A. A.</t>
   </si>
   <si>
@@ -360,12 +351,6 @@
     <t>USGS</t>
   </si>
   <si>
-    <t>Jordan, C.</t>
-  </si>
-  <si>
-    <t>Univ. Texas</t>
-  </si>
-  <si>
     <t>Ju, S.-J.</t>
   </si>
   <si>
@@ -441,9 +426,6 @@
     <t>Mitchell, L. E.</t>
   </si>
   <si>
-    <t>Newsome, S. D.</t>
-  </si>
-  <si>
     <t>Nielson, K. E.</t>
   </si>
   <si>
@@ -462,9 +444,6 @@
     <t>Pataki, D. E.</t>
   </si>
   <si>
-    <t>Pauli, J. N.</t>
-  </si>
-  <si>
     <t>Peers, D.</t>
   </si>
   <si>
@@ -639,36 +618,9 @@
     <t>Zhao, L.</t>
   </si>
   <si>
-    <t>Breecker, D.</t>
-  </si>
-  <si>
-    <t>Univ. Texas, Austin</t>
-  </si>
-  <si>
-    <t>Chilton, L.</t>
-  </si>
-  <si>
     <t>Columbia Univ.</t>
   </si>
   <si>
-    <t>Feiner, S.</t>
-  </si>
-  <si>
-    <t>Honish, B.</t>
-  </si>
-  <si>
-    <t>Huntington, K.</t>
-  </si>
-  <si>
-    <t>Montanez, I.</t>
-  </si>
-  <si>
-    <t>Univ. California, Davis</t>
-  </si>
-  <si>
-    <t>Royer, D.</t>
-  </si>
-  <si>
     <t>Wesleyan Univ.</t>
   </si>
   <si>
@@ -753,9 +705,6 @@
     <t>NCAR</t>
   </si>
   <si>
-    <t>Hook, T.</t>
-  </si>
-  <si>
     <t>Jing, Z.</t>
   </si>
   <si>
@@ -843,32 +792,83 @@
     <t>Zhang, J.</t>
   </si>
   <si>
-    <t>Atekwanan, E. A.</t>
-  </si>
-  <si>
-    <t>Hren, M. T.</t>
-  </si>
-  <si>
-    <t>Univ. Connecticut</t>
-  </si>
-  <si>
-    <t>Tabor, C.</t>
-  </si>
-  <si>
-    <t>Griffith, E.</t>
-  </si>
-  <si>
-    <t>Oster, J. L.</t>
-  </si>
-  <si>
-    <t>Vanderbilt Univ.</t>
+    <t>Carpenter, N. A.</t>
+  </si>
+  <si>
+    <t>Collins, S. C.</t>
+  </si>
+  <si>
+    <t>Fernandez, D. P.</t>
+  </si>
+  <si>
+    <t>Ghouri, S.</t>
+  </si>
+  <si>
+    <t>Hook, T. O.</t>
+  </si>
+  <si>
+    <t>Martins, D. J.</t>
+  </si>
+  <si>
+    <t>Podkovyroff, K.</t>
+  </si>
+  <si>
+    <t>Reich, M. S.</t>
+  </si>
+  <si>
+    <t>Talavera, G.</t>
+  </si>
+  <si>
+    <t>Talla, V. N. K.</t>
+  </si>
+  <si>
+    <t>Uno, K. T.</t>
+  </si>
+  <si>
+    <t>Vila, R.</t>
+  </si>
+  <si>
+    <t>Honisch, B.</t>
+  </si>
+  <si>
+    <t>Polissar, P. J.</t>
+  </si>
+  <si>
+    <t>UC Santa Cruz</t>
+  </si>
+  <si>
+    <t>Royer, D. L.</t>
+  </si>
+  <si>
+    <t>Harvard Univ.</t>
+  </si>
+  <si>
+    <t>Lopez-Manas, R.</t>
+  </si>
+  <si>
+    <t>Institut Botanic de Barcelona</t>
+  </si>
+  <si>
+    <t>Univ. de Dschang</t>
+  </si>
+  <si>
+    <t>Univ. Pompeu Fabra</t>
+  </si>
+  <si>
+    <t>Kenya Gatsby Charitable Trust</t>
+  </si>
+  <si>
+    <t>Kenya Agriculture and Livestock Research Organization</t>
+  </si>
+  <si>
+    <t>Utah's Hogle Zoo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1013,12 +1013,6 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -1362,7 +1356,7 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1837,9 +1831,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{459E1DE1-146B-4FC3-B2E5-1911D7A6BF84}">
-  <dimension ref="A1:B195"/>
+  <dimension ref="A1:B193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
@@ -1849,10 +1845,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="B1" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.75">
@@ -1865,15 +1861,15 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A3" s="1" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A4" s="1" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
@@ -1913,7 +1909,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A9" s="1" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>37</v>
@@ -1937,7 +1933,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A12" s="1" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>10</v>
@@ -2001,10 +1997,10 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A20" s="1" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.75">
@@ -2033,231 +2029,231 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A24" s="1" t="s">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>223</v>
+        <v>277</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>206</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A26" s="1" t="s">
-        <v>224</v>
+        <v>30</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>225</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A27" s="1" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>10</v>
+        <v>209</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>210</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A30" s="1" t="s">
-        <v>227</v>
+        <v>33</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>211</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>228</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>36</v>
+        <v>212</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A34" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A35" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A36" s="1" t="s">
-        <v>44</v>
+        <v>255</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>18</v>
+        <v>275</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A37" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A38" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>229</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A39" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>49</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A40" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>51</v>
+        <v>213</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A41" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A42" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A43" s="1" t="s">
-        <v>230</v>
+        <v>51</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>231</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A44" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A45" s="1" t="s">
-        <v>58</v>
+        <v>214</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>59</v>
+        <v>215</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A46" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A47" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A48" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A49" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A50" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A51" s="1" t="s">
-        <v>232</v>
+        <v>62</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A52" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>2</v>
@@ -2265,23 +2261,23 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A53" s="1" t="s">
-        <v>68</v>
+        <v>216</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>69</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A54" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>71</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A55" s="1" t="s">
-        <v>72</v>
+        <v>256</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>2</v>
@@ -2289,487 +2285,487 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A56" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>2</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A57" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A58" s="1" t="s">
-        <v>233</v>
+        <v>70</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A59" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>77</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A60" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A61" s="1" t="s">
-        <v>79</v>
+        <v>217</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A62" s="1" t="s">
-        <v>234</v>
+        <v>74</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A63" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A64" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>84</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A65" s="1" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A66" s="1" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A67" s="1" t="s">
-        <v>237</v>
+        <v>79</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A68" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>2</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A69" s="1" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A70" s="1" t="s">
-        <v>86</v>
+        <v>220</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>87</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A71" s="1" t="s">
-        <v>88</v>
+        <v>266</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>89</v>
+        <v>196</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A72" s="1" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>240</v>
+        <v>67</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A73" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>91</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A74" s="1" t="s">
-        <v>92</v>
+        <v>222</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>2</v>
+        <v>67</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A75" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A76" s="1" t="s">
-        <v>241</v>
+        <v>86</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A77" s="1" t="s">
-        <v>95</v>
+        <v>223</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>2</v>
+        <v>224</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A78" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>2</v>
+        <v>89</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A79" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>98</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A80" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>2</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A81" s="1" t="s">
-        <v>101</v>
+        <v>258</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A82" s="1" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>103</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A83" s="1" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>105</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A84" s="1" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A85" s="1" t="s">
-        <v>242</v>
+        <v>97</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>243</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A86" s="1" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>109</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A87" s="1" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A88" s="1" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>16</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A89" s="1" t="s">
-        <v>244</v>
+        <v>103</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A90" s="1" t="s">
-        <v>115</v>
+        <v>225</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>116</v>
+        <v>226</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A91" s="1" t="s">
-        <v>245</v>
+        <v>105</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>246</v>
+        <v>106</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A92" s="1" t="s">
-        <v>247</v>
+        <v>107</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A93" s="1" t="s">
-        <v>248</v>
+        <v>109</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A94" s="1" t="s">
-        <v>117</v>
+        <v>227</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>118</v>
+        <v>67</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A95" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>27</v>
+        <v>111</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A96" s="1" t="s">
-        <v>120</v>
+        <v>228</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>2</v>
+        <v>229</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A97" s="1" t="s">
-        <v>121</v>
+        <v>230</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>122</v>
+        <v>67</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A98" s="1" t="s">
-        <v>123</v>
+        <v>231</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A99" s="1" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>32</v>
+        <v>113</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A100" s="1" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A101" s="1" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>127</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A102" s="1" t="s">
-        <v>249</v>
+        <v>116</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>250</v>
+        <v>117</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A103" s="1" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>32</v>
+        <v>272</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A104" s="1" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>2</v>
+        <v>73</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A105" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A106" s="1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>132</v>
+        <v>29</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A107" s="1" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A108" s="1" t="s">
-        <v>135</v>
+        <v>232</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>2</v>
+        <v>233</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A109" s="1" t="s">
-        <v>136</v>
+        <v>234</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A110" s="1" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>132</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A111" s="1" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A112" s="1" t="s">
-        <v>141</v>
+        <v>259</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>142</v>
+        <v>276</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A113" s="1" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>2</v>
+        <v>127</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A114" s="1" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>2</v>
+        <v>129</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A115" s="1" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>75</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A116" s="1" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>2</v>
@@ -2777,87 +2773,87 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A117" s="1" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>80</v>
+        <v>127</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A118" s="1" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>2</v>
+        <v>134</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A119" s="1" t="s">
-        <v>252</v>
+        <v>135</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>32</v>
+        <v>136</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A120" s="1" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>151</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A121" s="1" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A122" s="1" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>154</v>
+        <v>73</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A123" s="1" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>156</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A124" s="1" t="s">
-        <v>157</v>
+        <v>260</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A125" s="1" t="s">
-        <v>158</v>
+        <v>267</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>2</v>
+        <v>268</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A126" s="1" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A127" s="1" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>2</v>
@@ -2865,103 +2861,103 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A128" s="1" t="s">
-        <v>161</v>
+        <v>235</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A129" s="1" t="s">
-        <v>162</v>
+        <v>261</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A130" s="1" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>2</v>
+        <v>144</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A131" s="1" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>151</v>
+        <v>41</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A132" s="1" t="s">
-        <v>165</v>
+        <v>269</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>166</v>
+        <v>197</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A133" s="1" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>57</v>
+        <v>147</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A134" s="1" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>2</v>
+        <v>149</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A135" s="1" t="s">
-        <v>253</v>
+        <v>150</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>69</v>
+        <v>5</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A136" s="1" t="s">
-        <v>254</v>
+        <v>151</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>255</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A137" s="1" t="s">
-        <v>256</v>
+        <v>152</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A138" s="1" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A139" s="1" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A140" s="1" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>2</v>
@@ -2969,183 +2965,183 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A141" s="1" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>113</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A142" s="1" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A143" s="1" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>27</v>
+        <v>159</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A144" s="1" t="s">
-        <v>257</v>
+        <v>160</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A145" s="1" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A146" s="1" t="s">
-        <v>177</v>
+        <v>236</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>178</v>
+        <v>67</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A147" s="1" t="s">
-        <v>179</v>
+        <v>237</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>2</v>
+        <v>238</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A148" s="1" t="s">
-        <v>180</v>
+        <v>239</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>181</v>
+        <v>10</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A149" s="1" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A150" s="1" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A151" s="1" t="s">
-        <v>258</v>
+        <v>164</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>259</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A152" s="1" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A153" s="1" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>27</v>
+        <v>167</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A154" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>27</v>
+        <v>272</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A155" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>27</v>
+        <v>273</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A156" s="1" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A157" s="1" t="s">
-        <v>188</v>
+        <v>240</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>189</v>
+        <v>29</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A158" s="1" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A159" s="1" t="s">
-        <v>262</v>
+        <v>170</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>263</v>
+        <v>171</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A160" s="1" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>192</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A161" s="1" t="s">
-        <v>193</v>
+        <v>264</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>84</v>
+        <v>270</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A162" s="1" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>82</v>
+        <v>174</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A163" s="1" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>2</v>
@@ -3153,259 +3149,227 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A164" s="1" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A165" s="1" t="s">
-        <v>197</v>
+        <v>241</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>198</v>
+        <v>242</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A166" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>32</v>
+        <v>274</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A167" s="1" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A168" s="1" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>201</v>
+        <v>27</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A169" s="1" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A170" s="1" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>267</v>
+        <v>27</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A171" s="1" t="s">
-        <v>268</v>
+        <v>179</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>223</v>
+        <v>180</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A172" s="1" t="s">
-        <v>269</v>
+        <v>181</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>32</v>
+        <v>182</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A173" s="1" t="s">
-        <v>270</v>
+        <v>183</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A174" s="1" t="s">
-        <v>202</v>
+        <v>245</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>25</v>
+        <v>246</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A175" s="1" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A176" s="1" t="s">
-        <v>218</v>
+        <v>186</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>2</v>
+        <v>82</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A177" s="1" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>206</v>
+        <v>80</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A178" s="1" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>206</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A179" s="1" t="s">
-        <v>81</v>
+        <v>189</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A180" s="1" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A181" s="1" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>99</v>
+        <v>32</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A182" s="1" t="s">
-        <v>110</v>
+        <v>192</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>111</v>
+        <v>32</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A183" s="1" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A184" s="1" t="s">
-        <v>137</v>
+        <v>248</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A185" s="1" t="s">
-        <v>139</v>
+        <v>249</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>140</v>
+        <v>250</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A186" s="1" t="s">
-        <v>144</v>
+        <v>251</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>61</v>
+        <v>207</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A187" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>213</v>
+      <c r="A187" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A188" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>69</v>
+      <c r="A188" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A189" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>201</v>
+      <c r="A189" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A190" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B190" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="A190" s="3"/>
+      <c r="B190" s="3"/>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A191" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="B191" s="3" t="s">
-        <v>211</v>
-      </c>
+      <c r="A191" s="3"/>
+      <c r="B191" s="3"/>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A192" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="B192" s="3" t="s">
-        <v>273</v>
-      </c>
+      <c r="A192" s="3"/>
+      <c r="B192" s="3"/>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A193" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="B193" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A194" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="B194" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A195" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>277</v>
-      </c>
+      <c r="A193" s="2"/>
+      <c r="B193" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
